--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H2">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.8295243998559</v>
+        <v>45.50099733333334</v>
       </c>
       <c r="N2">
-        <v>13.8295243998559</v>
+        <v>136.502992</v>
       </c>
       <c r="O2">
-        <v>0.2518103316605054</v>
+        <v>0.5190633550775298</v>
       </c>
       <c r="P2">
-        <v>0.2518103316605054</v>
+        <v>0.5190633550775298</v>
       </c>
       <c r="Q2">
-        <v>18.26611996346006</v>
+        <v>94.76281893325691</v>
       </c>
       <c r="R2">
-        <v>18.26611996346006</v>
+        <v>852.865370399312</v>
       </c>
       <c r="S2">
-        <v>0.007707573137306026</v>
+        <v>0.02450965426097678</v>
       </c>
       <c r="T2">
-        <v>0.007707573137306026</v>
+        <v>0.02450965426097678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H3">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>41.0908766363537</v>
+        <v>0.5123886666666667</v>
       </c>
       <c r="N3">
-        <v>41.0908766363537</v>
+        <v>1.537166</v>
       </c>
       <c r="O3">
-        <v>0.7481896683394946</v>
+        <v>0.005845194523436572</v>
       </c>
       <c r="P3">
-        <v>0.7481896683394946</v>
+        <v>0.005845194523436572</v>
       </c>
       <c r="Q3">
-        <v>54.27307985017875</v>
+        <v>1.067128135391778</v>
       </c>
       <c r="R3">
-        <v>54.27307985017875</v>
+        <v>9.604153218526001</v>
       </c>
       <c r="S3">
-        <v>0.02290107221286768</v>
+        <v>0.0002760042593185697</v>
       </c>
       <c r="T3">
-        <v>0.02290107221286768</v>
+        <v>0.0002760042593185697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.1306907057968</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H4">
-        <v>37.1306907057968</v>
+        <v>6.247961</v>
       </c>
       <c r="I4">
-        <v>0.860474642989663</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J4">
-        <v>0.860474642989663</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8295243998559</v>
+        <v>41.64642833333333</v>
       </c>
       <c r="N4">
-        <v>13.8295243998559</v>
+        <v>124.939285</v>
       </c>
       <c r="O4">
-        <v>0.2518103316605054</v>
+        <v>0.4750914503990336</v>
       </c>
       <c r="P4">
-        <v>0.2518103316605054</v>
+        <v>0.4750914503990337</v>
       </c>
       <c r="Q4">
-        <v>513.4997930993196</v>
+        <v>86.73508667198723</v>
       </c>
       <c r="R4">
-        <v>513.4997930993196</v>
+        <v>780.615780047885</v>
       </c>
       <c r="S4">
-        <v>0.216676405236682</v>
+        <v>0.02243334475015495</v>
       </c>
       <c r="T4">
-        <v>0.216676405236682</v>
+        <v>0.02243334475015495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H5">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.0908766363537</v>
+        <v>45.50099733333334</v>
       </c>
       <c r="N5">
-        <v>41.0908766363537</v>
+        <v>136.502992</v>
       </c>
       <c r="O5">
-        <v>0.7481896683394946</v>
+        <v>0.5190633550775298</v>
       </c>
       <c r="P5">
-        <v>0.7481896683394946</v>
+        <v>0.5190633550775298</v>
       </c>
       <c r="Q5">
-        <v>1525.732631214501</v>
+        <v>1696.378192800747</v>
       </c>
       <c r="R5">
-        <v>1525.732631214501</v>
+        <v>15267.40373520672</v>
       </c>
       <c r="S5">
-        <v>0.6437982377529811</v>
+        <v>0.4387548140657442</v>
       </c>
       <c r="T5">
-        <v>0.6437982377529811</v>
+        <v>0.4387548140657442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.69990924926599</v>
+        <v>37.28222</v>
       </c>
       <c r="H6">
-        <v>4.69990924926599</v>
+        <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.1089167116601631</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J6">
-        <v>0.1089167116601631</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>13.8295243998559</v>
+        <v>0.5123886666666667</v>
       </c>
       <c r="N6">
-        <v>13.8295243998559</v>
+        <v>1.537166</v>
       </c>
       <c r="O6">
-        <v>0.2518103316605054</v>
+        <v>0.005845194523436572</v>
       </c>
       <c r="P6">
-        <v>0.2518103316605054</v>
+        <v>0.005845194523436572</v>
       </c>
       <c r="Q6">
-        <v>64.99750963983243</v>
+        <v>19.10298699617333</v>
       </c>
       <c r="R6">
-        <v>64.99750963983243</v>
+        <v>171.92688296556</v>
       </c>
       <c r="S6">
-        <v>0.0274263532865173</v>
+        <v>0.004940836626630014</v>
       </c>
       <c r="T6">
-        <v>0.0274263532865173</v>
+        <v>0.004940836626630014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.69990924926599</v>
+        <v>37.28222</v>
       </c>
       <c r="H7">
-        <v>4.69990924926599</v>
+        <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.1089167116601631</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J7">
-        <v>0.1089167116601631</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.0908766363537</v>
+        <v>41.64642833333333</v>
       </c>
       <c r="N7">
-        <v>41.0908766363537</v>
+        <v>124.939285</v>
       </c>
       <c r="O7">
-        <v>0.7481896683394946</v>
+        <v>0.4750914503990336</v>
       </c>
       <c r="P7">
-        <v>0.7481896683394946</v>
+        <v>0.4750914503990337</v>
       </c>
       <c r="Q7">
-        <v>193.1233911636465</v>
+        <v>1552.671303337567</v>
       </c>
       <c r="R7">
-        <v>193.1233911636465</v>
+        <v>13974.0417300381</v>
       </c>
       <c r="S7">
-        <v>0.08149035837364579</v>
+        <v>0.4015861627390703</v>
       </c>
       <c r="T7">
-        <v>0.08149035837364579</v>
+        <v>0.4015861627390704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.741387</v>
+      </c>
+      <c r="H8">
+        <v>14.224161</v>
+      </c>
+      <c r="I8">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="J8">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>45.50099733333334</v>
+      </c>
+      <c r="N8">
+        <v>136.502992</v>
+      </c>
+      <c r="O8">
+        <v>0.5190633550775298</v>
+      </c>
+      <c r="P8">
+        <v>0.5190633550775298</v>
+      </c>
+      <c r="Q8">
+        <v>215.7378372433014</v>
+      </c>
+      <c r="R8">
+        <v>1941.640535189712</v>
+      </c>
+      <c r="S8">
+        <v>0.05579888675080875</v>
+      </c>
+      <c r="T8">
+        <v>0.05579888675080875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.741387</v>
+      </c>
+      <c r="H9">
+        <v>14.224161</v>
+      </c>
+      <c r="I9">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="J9">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5123886666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.537166</v>
+      </c>
+      <c r="O9">
+        <v>0.005845194523436572</v>
+      </c>
+      <c r="P9">
+        <v>0.005845194523436572</v>
+      </c>
+      <c r="Q9">
+        <v>2.429432963080667</v>
+      </c>
+      <c r="R9">
+        <v>21.864896667726</v>
+      </c>
+      <c r="S9">
+        <v>0.0006283536374879878</v>
+      </c>
+      <c r="T9">
+        <v>0.0006283536374879876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.741387</v>
+      </c>
+      <c r="H10">
+        <v>14.224161</v>
+      </c>
+      <c r="I10">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="J10">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>41.64642833333333</v>
+      </c>
+      <c r="N10">
+        <v>124.939285</v>
+      </c>
+      <c r="O10">
+        <v>0.4750914503990336</v>
+      </c>
+      <c r="P10">
+        <v>0.4750914503990337</v>
+      </c>
+      <c r="Q10">
+        <v>197.4618338960983</v>
+      </c>
+      <c r="R10">
+        <v>1777.156505064885</v>
+      </c>
+      <c r="S10">
+        <v>0.05107194290980829</v>
+      </c>
+      <c r="T10">
+        <v>0.05107194290980829</v>
       </c>
     </row>
   </sheetData>
